--- a/data/fgv_ibre.xlsx
+++ b/data/fgv_ibre.xlsx
@@ -16,7 +16,7 @@
     <t>month_date</t>
   </si>
   <si>
-    <t>consumer_inflation_expectation</t>
+    <t>consumer_inflation_expectation (1416188)</t>
   </si>
 </sst>
 </file>
@@ -288,7 +288,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="30.0"/>
+    <col customWidth="1" min="2" max="2" width="36.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2027,6 +2027,22 @@
         <v>7.3</v>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45170.0</v>
+      </c>
+      <c r="B218" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>45200.0</v>
+      </c>
+      <c r="B219" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/fgv_ibre.xlsx
+++ b/data/fgv_ibre.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus.morgado/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF53E2-F0C4-104C-B09F-B85654E3A0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="fgv_ibre" sheetId="1" r:id="rId4"/>
+    <sheet name="fgv_ibre" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16,32 +25,42 @@
     <t>month_date</t>
   </si>
   <si>
-    <t>consumer_inflation_expectation (1416188)</t>
+    <t>consumer_inflation_expectation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,42 +69,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -275,1775 +306,1780 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B219"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="36.5"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>38596.0</v>
+        <v>38596</v>
       </c>
       <c r="B2" s="3">
         <v>8.1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>38626.0</v>
+        <v>38626</v>
       </c>
       <c r="B3" s="3">
         <v>7.7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>38657.0</v>
+        <v>38657</v>
       </c>
       <c r="B4" s="3">
         <v>7.8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>38687.0</v>
+        <v>38687</v>
       </c>
       <c r="B5" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>38718.0</v>
+        <v>38718</v>
       </c>
       <c r="B6" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>38749.0</v>
+        <v>38749</v>
       </c>
       <c r="B7" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>38777.0</v>
+        <v>38777</v>
       </c>
       <c r="B8" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>38808.0</v>
+        <v>38808</v>
       </c>
       <c r="B9" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>38838.0</v>
+        <v>38838</v>
       </c>
       <c r="B10" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>38869.0</v>
+        <v>38869</v>
       </c>
       <c r="B11" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>38899.0</v>
+        <v>38899</v>
       </c>
       <c r="B12" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>38930.0</v>
+        <v>38930</v>
       </c>
       <c r="B13" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>38961.0</v>
+        <v>38961</v>
       </c>
       <c r="B14" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>38991.0</v>
+        <v>38991</v>
       </c>
       <c r="B15" s="3">
         <v>5.8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>39022.0</v>
+        <v>39022</v>
       </c>
       <c r="B16" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>39052.0</v>
+        <v>39052</v>
       </c>
       <c r="B17" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>39083.0</v>
+        <v>39083</v>
       </c>
       <c r="B18" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>39114.0</v>
+        <v>39114</v>
       </c>
       <c r="B19" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>39142.0</v>
+        <v>39142</v>
       </c>
       <c r="B20" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>39173.0</v>
+        <v>39173</v>
       </c>
       <c r="B21" s="3">
         <v>5.2</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>39203.0</v>
+        <v>39203</v>
       </c>
       <c r="B22" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>39234.0</v>
+        <v>39234</v>
       </c>
       <c r="B23" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>39264.0</v>
+        <v>39264</v>
       </c>
       <c r="B24" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>39295.0</v>
+        <v>39295</v>
       </c>
       <c r="B25" s="3">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>39326.0</v>
+        <v>39326</v>
       </c>
       <c r="B26" s="3">
         <v>5.2</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>39356.0</v>
+        <v>39356</v>
       </c>
       <c r="B27" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>39387.0</v>
+        <v>39387</v>
       </c>
       <c r="B28" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>39417.0</v>
+        <v>39417</v>
       </c>
       <c r="B29" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>39448.0</v>
+        <v>39448</v>
       </c>
       <c r="B30" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>39479.0</v>
+        <v>39479</v>
       </c>
       <c r="B31" s="3">
         <v>5.8</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>39508.0</v>
+        <v>39508</v>
       </c>
       <c r="B32" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>39539.0</v>
+        <v>39539</v>
       </c>
       <c r="B33" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>39569.0</v>
+        <v>39569</v>
       </c>
       <c r="B34" s="3">
         <v>6.2</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>39600.0</v>
+        <v>39600</v>
       </c>
       <c r="B35" s="3">
         <v>6.8</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>39630.0</v>
+        <v>39630</v>
       </c>
       <c r="B36" s="3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>39661.0</v>
+        <v>39661</v>
       </c>
       <c r="B37" s="3">
         <v>7.4</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>39692.0</v>
+        <v>39692</v>
       </c>
       <c r="B38" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>39722.0</v>
+        <v>39722</v>
       </c>
       <c r="B39" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>39753.0</v>
+        <v>39753</v>
       </c>
       <c r="B40" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>39783.0</v>
+        <v>39783</v>
       </c>
       <c r="B41" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>39814.0</v>
+        <v>39814</v>
       </c>
       <c r="B42" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>39845.0</v>
+        <v>39845</v>
       </c>
       <c r="B43" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>39873.0</v>
+        <v>39873</v>
       </c>
       <c r="B44" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>39904.0</v>
+        <v>39904</v>
       </c>
       <c r="B45" s="3">
         <v>6.8</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>39934.0</v>
+        <v>39934</v>
       </c>
       <c r="B46" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>39965.0</v>
+        <v>39965</v>
       </c>
       <c r="B47" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>39995.0</v>
+        <v>39995</v>
       </c>
       <c r="B48" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>40026.0</v>
+        <v>40026</v>
       </c>
       <c r="B49" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>40057.0</v>
+        <v>40057</v>
       </c>
       <c r="B50" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>40087.0</v>
+        <v>40087</v>
       </c>
       <c r="B51" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>40118.0</v>
+        <v>40118</v>
       </c>
       <c r="B52" s="3">
         <v>6.1</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>40148.0</v>
+        <v>40148</v>
       </c>
       <c r="B53" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>40179.0</v>
+        <v>40179</v>
       </c>
       <c r="B54" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>40210.0</v>
+        <v>40210</v>
       </c>
       <c r="B55" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>40238.0</v>
+        <v>40238</v>
       </c>
       <c r="B56" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>40269.0</v>
+        <v>40269</v>
       </c>
       <c r="B57" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>40299.0</v>
+        <v>40299</v>
       </c>
       <c r="B58" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>40330.0</v>
+        <v>40330</v>
       </c>
       <c r="B59" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>40360.0</v>
+        <v>40360</v>
       </c>
       <c r="B60" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>40391.0</v>
+        <v>40391</v>
       </c>
       <c r="B61" s="3">
         <v>6.1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>40422.0</v>
+        <v>40422</v>
       </c>
       <c r="B62" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>40452.0</v>
+        <v>40452</v>
       </c>
       <c r="B63" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>40483.0</v>
+        <v>40483</v>
       </c>
       <c r="B64" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>40513.0</v>
+        <v>40513</v>
       </c>
       <c r="B65" s="3">
         <v>6.2</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>40544.0</v>
+        <v>40544</v>
       </c>
       <c r="B66" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>40575.0</v>
+        <v>40575</v>
       </c>
       <c r="B67" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>40603.0</v>
+        <v>40603</v>
       </c>
       <c r="B68" s="3">
         <v>6.8</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>40634.0</v>
+        <v>40634</v>
       </c>
       <c r="B69" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
-        <v>40664.0</v>
+        <v>40664</v>
       </c>
       <c r="B70" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
-        <v>40695.0</v>
+        <v>40695</v>
       </c>
       <c r="B71" s="3">
         <v>6.8</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
-        <v>40725.0</v>
+        <v>40725</v>
       </c>
       <c r="B72" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>40756.0</v>
+        <v>40756</v>
       </c>
       <c r="B73" s="3">
         <v>6.8</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
-        <v>40787.0</v>
+        <v>40787</v>
       </c>
       <c r="B74" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
-        <v>40817.0</v>
+        <v>40817</v>
       </c>
       <c r="B75" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
-        <v>40848.0</v>
+        <v>40848</v>
       </c>
       <c r="B76" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
-        <v>40878.0</v>
+        <v>40878</v>
       </c>
       <c r="B77" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
-        <v>40909.0</v>
+        <v>40909</v>
       </c>
       <c r="B78" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
-        <v>40940.0</v>
+        <v>40940</v>
       </c>
       <c r="B79" s="3">
         <v>6.6</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
-        <v>40969.0</v>
+        <v>40969</v>
       </c>
       <c r="B80" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
-        <v>41000.0</v>
+        <v>41000</v>
       </c>
       <c r="B81" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
-        <v>41030.0</v>
+        <v>41030</v>
       </c>
       <c r="B82" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
-        <v>41061.0</v>
+        <v>41061</v>
       </c>
       <c r="B83" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
-        <v>41091.0</v>
+        <v>41091</v>
       </c>
       <c r="B84" s="3">
         <v>6.2</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
-        <v>41122.0</v>
+        <v>41122</v>
       </c>
       <c r="B85" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
-        <v>41153.0</v>
+        <v>41153</v>
       </c>
       <c r="B86" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
-        <v>41183.0</v>
+        <v>41183</v>
       </c>
       <c r="B87" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
-        <v>41214.0</v>
+        <v>41214</v>
       </c>
       <c r="B88" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
-        <v>41244.0</v>
+        <v>41244</v>
       </c>
       <c r="B89" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
-        <v>41275.0</v>
+        <v>41275</v>
       </c>
       <c r="B90" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
-        <v>41306.0</v>
+        <v>41306</v>
       </c>
       <c r="B91" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
-        <v>41334.0</v>
+        <v>41334</v>
       </c>
       <c r="B92" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
-        <v>41365.0</v>
+        <v>41365</v>
       </c>
       <c r="B93" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
-        <v>41395.0</v>
+        <v>41395</v>
       </c>
       <c r="B94" s="3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
-        <v>41426.0</v>
+        <v>41426</v>
       </c>
       <c r="B95" s="3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
-        <v>41456.0</v>
+        <v>41456</v>
       </c>
       <c r="B96" s="3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
-        <v>41487.0</v>
+        <v>41487</v>
       </c>
       <c r="B97" s="3">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
-        <v>41518.0</v>
+        <v>41518</v>
       </c>
       <c r="B98" s="3">
         <v>7.1</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
-        <v>41548.0</v>
+        <v>41548</v>
       </c>
       <c r="B99" s="3">
         <v>7.1</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
-        <v>41579.0</v>
+        <v>41579</v>
       </c>
       <c r="B100" s="3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
-        <v>41609.0</v>
+        <v>41609</v>
       </c>
       <c r="B101" s="3">
         <v>7.1</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
-        <v>41640.0</v>
+        <v>41640</v>
       </c>
       <c r="B102" s="3">
         <v>7.3</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
-        <v>41671.0</v>
+        <v>41671</v>
       </c>
       <c r="B103" s="3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
-        <v>41699.0</v>
+        <v>41699</v>
       </c>
       <c r="B104" s="3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
-        <v>41730.0</v>
+        <v>41730</v>
       </c>
       <c r="B105" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
-        <v>41760.0</v>
+        <v>41760</v>
       </c>
       <c r="B106" s="3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
-        <v>41791.0</v>
+        <v>41791</v>
       </c>
       <c r="B107" s="3">
         <v>7.4</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
-        <v>41821.0</v>
+        <v>41821</v>
       </c>
       <c r="B108" s="3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
-        <v>41852.0</v>
+        <v>41852</v>
       </c>
       <c r="B109" s="3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
-        <v>41883.0</v>
+        <v>41883</v>
       </c>
       <c r="B110" s="3">
         <v>7.3</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
-        <v>41913.0</v>
+        <v>41913</v>
       </c>
       <c r="B111" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
-        <v>41944.0</v>
+        <v>41944</v>
       </c>
       <c r="B112" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
-        <v>41974.0</v>
+        <v>41974</v>
       </c>
       <c r="B113" s="3">
         <v>7.4</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
-        <v>42005.0</v>
+        <v>42005</v>
       </c>
       <c r="B114" s="3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
-        <v>42036.0</v>
+        <v>42036</v>
       </c>
       <c r="B115" s="3">
         <v>7.9</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
-        <v>42064.0</v>
+        <v>42064</v>
       </c>
       <c r="B116" s="3">
         <v>8.4</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="B117" s="3">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
-        <v>42125.0</v>
+        <v>42125</v>
       </c>
       <c r="B118" s="3">
         <v>8.9</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
-        <v>42156.0</v>
+        <v>42156</v>
       </c>
       <c r="B119" s="3">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
-        <v>42186.0</v>
+        <v>42186</v>
       </c>
       <c r="B120" s="3">
-        <v>9.7</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
-        <v>42217.0</v>
+        <v>42217</v>
       </c>
       <c r="B121" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
-        <v>42248.0</v>
+        <v>42248</v>
       </c>
       <c r="B122" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
-        <v>42278.0</v>
+        <v>42278</v>
       </c>
       <c r="B123" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
-        <v>42309.0</v>
+        <v>42309</v>
       </c>
       <c r="B124" s="3">
         <v>10.1</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
-        <v>42339.0</v>
+        <v>42339</v>
       </c>
       <c r="B125" s="3">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
-        <v>42370.0</v>
+        <v>42370</v>
       </c>
       <c r="B126" s="3">
         <v>11.3</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
-        <v>42401.0</v>
+        <v>42401</v>
       </c>
       <c r="B127" s="3">
         <v>11.4</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
-        <v>42430.0</v>
+        <v>42430</v>
       </c>
       <c r="B128" s="3">
         <v>11.1</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
-        <v>42461.0</v>
+        <v>42461</v>
       </c>
       <c r="B129" s="3">
         <v>10.7</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
-        <v>42491.0</v>
+        <v>42491</v>
       </c>
       <c r="B130" s="3">
         <v>10.3</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
-        <v>42522.0</v>
+        <v>42522</v>
       </c>
       <c r="B131" s="3">
         <v>10.5</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
-        <v>42552.0</v>
+        <v>42552</v>
       </c>
       <c r="B132" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
-        <v>42583.0</v>
+        <v>42583</v>
       </c>
       <c r="B133" s="3">
-        <v>9.8</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
-        <v>42614.0</v>
+        <v>42614</v>
       </c>
       <c r="B134" s="3">
-        <v>9.8</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
-        <v>42644.0</v>
+        <v>42644</v>
       </c>
       <c r="B135" s="3">
         <v>9.1</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
-        <v>42675.0</v>
+        <v>42675</v>
       </c>
       <c r="B136" s="3">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
-        <v>42705.0</v>
+        <v>42705</v>
       </c>
       <c r="B137" s="3">
         <v>9.1</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B138" s="3">
         <v>7.9</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
-        <v>42767.0</v>
+        <v>42767</v>
       </c>
       <c r="B139" s="3">
         <v>7.6</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
-        <v>42795.0</v>
+        <v>42795</v>
       </c>
       <c r="B140" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
-        <v>42826.0</v>
+        <v>42826</v>
       </c>
       <c r="B141" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
-        <v>42856.0</v>
+        <v>42856</v>
       </c>
       <c r="B142" s="3">
         <v>7.1</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
-        <v>42887.0</v>
+        <v>42887</v>
       </c>
       <c r="B143" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
-        <v>42917.0</v>
+        <v>42917</v>
       </c>
       <c r="B144" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
-        <v>42948.0</v>
+        <v>42948</v>
       </c>
       <c r="B145" s="3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
-        <v>42979.0</v>
+        <v>42979</v>
       </c>
       <c r="B146" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
-        <v>43009.0</v>
+        <v>43009</v>
       </c>
       <c r="B147" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
-        <v>43040.0</v>
+        <v>43040</v>
       </c>
       <c r="B148" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
-        <v>43070.0</v>
+        <v>43070</v>
       </c>
       <c r="B149" s="3">
         <v>5.8</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
-        <v>43101.0</v>
+        <v>43101</v>
       </c>
       <c r="B150" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
-        <v>43132.0</v>
+        <v>43132</v>
       </c>
       <c r="B151" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
-        <v>43160.0</v>
+        <v>43160</v>
       </c>
       <c r="B152" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
-        <v>43191.0</v>
+        <v>43191</v>
       </c>
       <c r="B153" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
-        <v>43221.0</v>
+        <v>43221</v>
       </c>
       <c r="B154" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
-        <v>43252.0</v>
+        <v>43252</v>
       </c>
       <c r="B155" s="3">
         <v>5.2</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
-        <v>43282.0</v>
+        <v>43282</v>
       </c>
       <c r="B156" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
-        <v>43313.0</v>
+        <v>43313</v>
       </c>
       <c r="B157" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
-        <v>43344.0</v>
+        <v>43344</v>
       </c>
       <c r="B158" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
-        <v>43374.0</v>
+        <v>43374</v>
       </c>
       <c r="B159" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
-        <v>43405.0</v>
+        <v>43405</v>
       </c>
       <c r="B160" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
-        <v>43435.0</v>
+        <v>43435</v>
       </c>
       <c r="B161" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
-        <v>43466.0</v>
+        <v>43466</v>
       </c>
       <c r="B162" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
-        <v>43497.0</v>
+        <v>43497</v>
       </c>
       <c r="B163" s="3">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
-        <v>43525.0</v>
+        <v>43525</v>
       </c>
       <c r="B164" s="3">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
-        <v>43556.0</v>
+        <v>43556</v>
       </c>
       <c r="B165" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
-        <v>43586.0</v>
+        <v>43586</v>
       </c>
       <c r="B166" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
-        <v>43617.0</v>
+        <v>43617</v>
       </c>
       <c r="B167" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
-        <v>43647.0</v>
+        <v>43647</v>
       </c>
       <c r="B168" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
-        <v>43678.0</v>
+        <v>43678</v>
       </c>
       <c r="B169" s="3">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
-        <v>43709.0</v>
+        <v>43709</v>
       </c>
       <c r="B170" s="3">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
-        <v>43739.0</v>
+        <v>43739</v>
       </c>
       <c r="B171" s="3">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
-        <v>43770.0</v>
+        <v>43770</v>
       </c>
       <c r="B172" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
-        <v>43800.0</v>
+        <v>43800</v>
       </c>
       <c r="B173" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
-        <v>43831.0</v>
+        <v>43831</v>
       </c>
       <c r="B174" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
-        <v>43862.0</v>
+        <v>43862</v>
       </c>
       <c r="B175" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
-        <v>43891.0</v>
+        <v>43891</v>
       </c>
       <c r="B176" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
-        <v>43922.0</v>
+        <v>43922</v>
       </c>
       <c r="B177" s="3">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="B178" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="B179" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="B180" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="B181" s="3">
         <v>4.3</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="B182" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="B183" s="3">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
-        <v>44136.0</v>
+        <v>44136</v>
       </c>
       <c r="B184" s="3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="B185" s="3">
         <v>5.2</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
-        <v>44197.0</v>
+        <v>44197</v>
       </c>
       <c r="B186" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
-        <v>44228.0</v>
+        <v>44228</v>
       </c>
       <c r="B187" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
-        <v>44256.0</v>
+        <v>44256</v>
       </c>
       <c r="B188" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
-        <v>44287.0</v>
+        <v>44287</v>
       </c>
       <c r="B189" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
-        <v>44317.0</v>
+        <v>44317</v>
       </c>
       <c r="B190" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
-        <v>44348.0</v>
+        <v>44348</v>
       </c>
       <c r="B191" s="3">
         <v>6.1</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
-        <v>44378.0</v>
+        <v>44378</v>
       </c>
       <c r="B192" s="3">
         <v>6.7</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
-        <v>44409.0</v>
+        <v>44409</v>
       </c>
       <c r="B193" s="3">
         <v>6.9</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
-        <v>44440.0</v>
+        <v>44440</v>
       </c>
       <c r="B194" s="3">
         <v>7.8</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
-        <v>44470.0</v>
+        <v>44470</v>
       </c>
       <c r="B195" s="3">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
-        <v>44501.0</v>
+        <v>44501</v>
       </c>
       <c r="B196" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="B197" s="3">
         <v>10.1</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="B198" s="3">
         <v>9.9</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="B199" s="3">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="B200" s="3">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
-        <v>44652.0</v>
+        <v>44652</v>
       </c>
       <c r="B201" s="3">
         <v>10.6</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
-        <v>44682.0</v>
+        <v>44682</v>
       </c>
       <c r="B202" s="3">
         <v>11.2</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="B203" s="3">
         <v>11.3</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="B204" s="3">
         <v>11.4</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
-        <v>44774.0</v>
+        <v>44774</v>
       </c>
       <c r="B205" s="3">
         <v>10.5</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
-        <v>44805.0</v>
+        <v>44805</v>
       </c>
       <c r="B206" s="3">
         <v>9.9</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
-        <v>44835.0</v>
+        <v>44835</v>
       </c>
       <c r="B207" s="3">
-        <v>9.3</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
-        <v>44866.0</v>
+        <v>44866</v>
       </c>
       <c r="B208" s="3">
-        <v>8.7</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
-        <v>44896.0</v>
+        <v>44896</v>
       </c>
       <c r="B209" s="3">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="B210" s="3">
         <v>8.6</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
-        <v>44958.0</v>
+        <v>44958</v>
       </c>
       <c r="B211" s="3">
-        <v>8.3</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
-        <v>44986.0</v>
+        <v>44986</v>
       </c>
       <c r="B212" s="3">
         <v>7.8</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
-        <v>45017.0</v>
+        <v>45017</v>
       </c>
       <c r="B213" s="3">
-        <v>8.3</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
-        <v>45047.0</v>
+        <v>45047</v>
       </c>
       <c r="B214" s="3">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="B215" s="3">
         <v>7.7</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="B216" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
-        <v>45139.0</v>
+        <v>45139</v>
       </c>
       <c r="B217" s="3">
         <v>7.3</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
-        <v>45170.0</v>
+        <v>45170</v>
       </c>
       <c r="B218" s="3">
         <v>7.3</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
-        <v>45200.0</v>
+        <v>45200</v>
       </c>
       <c r="B219" s="3">
         <v>7.5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/fgv_ibre.xlsx
+++ b/data/fgv_ibre.xlsx
@@ -1,66 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus.morgado/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF53E2-F0C4-104C-B09F-B85654E3A0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="fgv_ibre" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="fgv_ibre" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>month_date</t>
   </si>
   <si>
     <t>consumer_inflation_expectation</t>
   </si>
+  <si>
+    <t>consumer_confidence_index</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -69,54 +53,42 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -306,1780 +278,2421 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col customWidth="1" min="2" max="3" width="36.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2">
-        <v>38596</v>
+        <v>38596.0</v>
       </c>
       <c r="B2" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="3">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="2">
-        <v>38626</v>
+        <v>38626.0</v>
       </c>
       <c r="B3" s="3">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="3">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="2">
-        <v>38657</v>
+        <v>38657.0</v>
       </c>
       <c r="B4" s="3">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="3">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="2">
-        <v>38687</v>
+        <v>38687.0</v>
       </c>
       <c r="B5" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="3">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="2">
-        <v>38718</v>
+        <v>38718.0</v>
       </c>
       <c r="B6" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="3">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="2">
-        <v>38749</v>
+        <v>38749.0</v>
       </c>
       <c r="B7" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="2">
-        <v>38777</v>
+        <v>38777.0</v>
       </c>
       <c r="B8" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="3">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="2">
-        <v>38808</v>
+        <v>38808.0</v>
       </c>
       <c r="B9" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="3">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="2">
-        <v>38838</v>
+        <v>38838.0</v>
       </c>
       <c r="B10" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="3">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="2">
-        <v>38869</v>
+        <v>38869.0</v>
       </c>
       <c r="B11" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="3">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="2">
-        <v>38899</v>
+        <v>38899.0</v>
       </c>
       <c r="B12" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="3">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="2">
-        <v>38930</v>
+        <v>38930.0</v>
       </c>
       <c r="B13" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="3">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="2">
-        <v>38961</v>
+        <v>38961.0</v>
       </c>
       <c r="B14" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="3">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="2">
-        <v>38991</v>
+        <v>38991.0</v>
       </c>
       <c r="B15" s="3">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="3">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="2">
-        <v>39022</v>
+        <v>39022.0</v>
       </c>
       <c r="B16" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="3">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="2">
-        <v>39052</v>
+        <v>39052.0</v>
       </c>
       <c r="B17" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="3">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="2">
-        <v>39083</v>
+        <v>39083.0</v>
       </c>
       <c r="B18" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="3">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="2">
-        <v>39114</v>
+        <v>39114.0</v>
       </c>
       <c r="B19" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="3">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="2">
-        <v>39142</v>
+        <v>39142.0</v>
       </c>
       <c r="B20" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="3">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="2">
-        <v>39173</v>
+        <v>39173.0</v>
       </c>
       <c r="B21" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="3">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="2">
-        <v>39203</v>
+        <v>39203.0</v>
       </c>
       <c r="B22" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="3">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="2">
-        <v>39234</v>
+        <v>39234.0</v>
       </c>
       <c r="B23" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="3">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="2">
-        <v>39264</v>
+        <v>39264.0</v>
       </c>
       <c r="B24" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="3">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="2">
-        <v>39295</v>
+        <v>39295.0</v>
       </c>
       <c r="B25" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4.9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="2">
-        <v>39326</v>
+        <v>39326.0</v>
       </c>
       <c r="B26" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="3">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="2">
-        <v>39356</v>
+        <v>39356.0</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="2">
-        <v>39387</v>
+        <v>39387.0</v>
       </c>
       <c r="B28" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="3">
+        <v>103.1</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="2">
-        <v>39417</v>
+        <v>39417.0</v>
       </c>
       <c r="B29" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="3">
+        <v>109.0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="2">
-        <v>39448</v>
+        <v>39448.0</v>
       </c>
       <c r="B30" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="3">
+        <v>104.1</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="2">
-        <v>39479</v>
+        <v>39479.0</v>
       </c>
       <c r="B31" s="3">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="3">
+        <v>105.9</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="2">
-        <v>39508</v>
+        <v>39508.0</v>
       </c>
       <c r="B32" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="3">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="2">
-        <v>39539</v>
+        <v>39539.0</v>
       </c>
       <c r="B33" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="3">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="2">
-        <v>39569</v>
+        <v>39569.0</v>
       </c>
       <c r="B34" s="3">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="3">
+        <v>103.1</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="2">
-        <v>39600</v>
+        <v>39600.0</v>
       </c>
       <c r="B35" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="3">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="2">
-        <v>39630</v>
+        <v>39630.0</v>
       </c>
       <c r="B36" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="3">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="2">
-        <v>39661</v>
+        <v>39661.0</v>
       </c>
       <c r="B37" s="3">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="3">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="2">
-        <v>39692</v>
+        <v>39692.0</v>
       </c>
       <c r="B38" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="3">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="2">
-        <v>39722</v>
+        <v>39722.0</v>
       </c>
       <c r="B39" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="3">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="2">
-        <v>39753</v>
+        <v>39753.0</v>
       </c>
       <c r="B40" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="3">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="2">
-        <v>39783</v>
+        <v>39783.0</v>
       </c>
       <c r="B41" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="3">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="2">
-        <v>39814</v>
+        <v>39814.0</v>
       </c>
       <c r="B42" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="3">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="2">
-        <v>39845</v>
+        <v>39845.0</v>
       </c>
       <c r="B43" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="3">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="2">
-        <v>39873</v>
+        <v>39873.0</v>
       </c>
       <c r="B44" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="3">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="2">
-        <v>39904</v>
+        <v>39904.0</v>
       </c>
       <c r="B45" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="3">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="2">
-        <v>39934</v>
+        <v>39934.0</v>
       </c>
       <c r="B46" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="3">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="2">
-        <v>39965</v>
+        <v>39965.0</v>
       </c>
       <c r="B47" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="3">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="2">
-        <v>39995</v>
+        <v>39995.0</v>
       </c>
       <c r="B48" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="3">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="2">
-        <v>40026</v>
+        <v>40026.0</v>
       </c>
       <c r="B49" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="3">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="2">
-        <v>40057</v>
+        <v>40057.0</v>
       </c>
       <c r="B50" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C50" s="3">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="2">
-        <v>40087</v>
+        <v>40087.0</v>
       </c>
       <c r="B51" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>6.0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="2">
-        <v>40118</v>
+        <v>40118.0</v>
       </c>
       <c r="B52" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C52" s="3">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="2">
-        <v>40148</v>
+        <v>40148.0</v>
       </c>
       <c r="B53" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C53" s="3">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="2">
-        <v>40179</v>
+        <v>40179.0</v>
       </c>
       <c r="B54" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C54" s="3">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="2">
-        <v>40210</v>
+        <v>40210.0</v>
       </c>
       <c r="B55" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>7.0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="2">
-        <v>40238</v>
+        <v>40238.0</v>
       </c>
       <c r="B56" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>7.0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="2">
-        <v>40269</v>
+        <v>40269.0</v>
       </c>
       <c r="B57" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C57" s="3">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="2">
-        <v>40299</v>
+        <v>40299.0</v>
       </c>
       <c r="B58" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>6.0</v>
+      </c>
+      <c r="C58" s="3">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" s="2">
-        <v>40330</v>
+        <v>40330.0</v>
       </c>
       <c r="B59" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>6.0</v>
+      </c>
+      <c r="C59" s="3">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="2">
-        <v>40360</v>
+        <v>40360.0</v>
       </c>
       <c r="B60" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>6.0</v>
+      </c>
+      <c r="C60" s="3">
+        <v>104.2</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" s="2">
-        <v>40391</v>
+        <v>40391.0</v>
       </c>
       <c r="B61" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C61" s="3">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="2">
-        <v>40422</v>
+        <v>40422.0</v>
       </c>
       <c r="B62" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>6.0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="2">
-        <v>40452</v>
+        <v>40452.0</v>
       </c>
       <c r="B63" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C63" s="3">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="2">
-        <v>40483</v>
+        <v>40483.0</v>
       </c>
       <c r="B64" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>6.0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>109.1</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="2">
-        <v>40513</v>
+        <v>40513.0</v>
       </c>
       <c r="B65" s="3">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C65" s="3">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="2">
-        <v>40544</v>
+        <v>40544.0</v>
       </c>
       <c r="B66" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C66" s="3">
+        <v>107.8</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="2">
-        <v>40575</v>
+        <v>40575.0</v>
       </c>
       <c r="B67" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C67" s="3">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="2">
-        <v>40603</v>
+        <v>40603.0</v>
       </c>
       <c r="B68" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C68" s="3">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="2">
-        <v>40634</v>
+        <v>40634.0</v>
       </c>
       <c r="B69" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C69" s="3">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="2">
-        <v>40664</v>
+        <v>40664.0</v>
       </c>
       <c r="B70" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>7.0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="2">
-        <v>40695</v>
+        <v>40695.0</v>
       </c>
       <c r="B71" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C71" s="3">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="2">
-        <v>40725</v>
+        <v>40725.0</v>
       </c>
       <c r="B72" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C72" s="3">
+        <v>109.0</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="2">
-        <v>40756</v>
+        <v>40756.0</v>
       </c>
       <c r="B73" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C73" s="3">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="2">
-        <v>40787</v>
+        <v>40787.0</v>
       </c>
       <c r="B74" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C74" s="3">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="2">
-        <v>40817</v>
+        <v>40817.0</v>
       </c>
       <c r="B75" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>7.0</v>
+      </c>
+      <c r="C75" s="3">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" s="2">
-        <v>40848</v>
+        <v>40848.0</v>
       </c>
       <c r="B76" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C76" s="3">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="2">
-        <v>40878</v>
+        <v>40878.0</v>
       </c>
       <c r="B77" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C77" s="3">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" s="2">
-        <v>40909</v>
+        <v>40909.0</v>
       </c>
       <c r="B78" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C78" s="3">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="2">
-        <v>40940</v>
+        <v>40940.0</v>
       </c>
       <c r="B79" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C79" s="3">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="2">
-        <v>40969</v>
+        <v>40969.0</v>
       </c>
       <c r="B80" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C80" s="3">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" s="2">
-        <v>41000</v>
+        <v>41000.0</v>
       </c>
       <c r="B81" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C81" s="3">
+        <v>113.2</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" s="2">
-        <v>41030</v>
+        <v>41030.0</v>
       </c>
       <c r="B82" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C82" s="3">
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="2">
-        <v>41061</v>
+        <v>41061.0</v>
       </c>
       <c r="B83" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C83" s="3">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="2">
-        <v>41091</v>
+        <v>41091.0</v>
       </c>
       <c r="B84" s="3">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C84" s="3">
+        <v>108.3</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" s="2">
-        <v>41122</v>
+        <v>41122.0</v>
       </c>
       <c r="B85" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C85" s="3">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="2">
-        <v>41153</v>
+        <v>41153.0</v>
       </c>
       <c r="B86" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C86" s="3">
+        <v>107.7</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" s="2">
-        <v>41183</v>
+        <v>41183.0</v>
       </c>
       <c r="B87" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C87" s="3">
+        <v>107.9</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" s="2">
-        <v>41214</v>
+        <v>41214.0</v>
       </c>
       <c r="B88" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C88" s="3">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" s="2">
-        <v>41244</v>
+        <v>41244.0</v>
       </c>
       <c r="B89" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C89" s="3">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" s="2">
-        <v>41275</v>
+        <v>41275.0</v>
       </c>
       <c r="B90" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C90" s="3">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" s="2">
-        <v>41306</v>
+        <v>41306.0</v>
       </c>
       <c r="B91" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C91" s="3">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="2">
-        <v>41334</v>
+        <v>41334.0</v>
       </c>
       <c r="B92" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C92" s="3">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" s="2">
-        <v>41365</v>
+        <v>41365.0</v>
       </c>
       <c r="B93" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>7.0</v>
+      </c>
+      <c r="C93" s="3">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" s="2">
-        <v>41395</v>
+        <v>41395.0</v>
       </c>
       <c r="B94" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C94" s="3">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" s="2">
-        <v>41426</v>
+        <v>41426.0</v>
       </c>
       <c r="B95" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C95" s="3">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" s="2">
-        <v>41456</v>
+        <v>41456.0</v>
       </c>
       <c r="B96" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C96" s="3">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" s="2">
-        <v>41487</v>
+        <v>41487.0</v>
       </c>
       <c r="B97" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>7.0</v>
+      </c>
+      <c r="C97" s="3">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" s="2">
-        <v>41518</v>
+        <v>41518.0</v>
       </c>
       <c r="B98" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C98" s="3">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" s="2">
-        <v>41548</v>
+        <v>41548.0</v>
       </c>
       <c r="B99" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C99" s="3">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" s="2">
-        <v>41579</v>
+        <v>41579.0</v>
       </c>
       <c r="B100" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C100" s="3">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" s="2">
-        <v>41609</v>
+        <v>41609.0</v>
       </c>
       <c r="B101" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C101" s="3">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" s="2">
-        <v>41640</v>
+        <v>41640.0</v>
       </c>
       <c r="B102" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C102" s="3">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" s="2">
-        <v>41671</v>
+        <v>41671.0</v>
       </c>
       <c r="B103" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C103" s="3">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" s="2">
-        <v>41699</v>
+        <v>41699.0</v>
       </c>
       <c r="B104" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C104" s="3">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" s="2">
-        <v>41730</v>
+        <v>41730.0</v>
       </c>
       <c r="B105" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C105" s="3">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106" s="2">
-        <v>41760</v>
+        <v>41760.0</v>
       </c>
       <c r="B106" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C106" s="3">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" s="2">
-        <v>41791</v>
+        <v>41791.0</v>
       </c>
       <c r="B107" s="3">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C107" s="3">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" s="2">
-        <v>41821</v>
+        <v>41821.0</v>
       </c>
       <c r="B108" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C108" s="3">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109" s="2">
-        <v>41852</v>
+        <v>41852.0</v>
       </c>
       <c r="B109" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C109" s="3">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="A110" s="2">
-        <v>41883</v>
+        <v>41883.0</v>
       </c>
       <c r="B110" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C110" s="3">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111" s="2">
-        <v>41913</v>
+        <v>41913.0</v>
       </c>
       <c r="B111" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C111" s="3">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" s="2">
-        <v>41944</v>
+        <v>41944.0</v>
       </c>
       <c r="B112" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C112" s="3">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113" s="2">
-        <v>41974</v>
+        <v>41974.0</v>
       </c>
       <c r="B113" s="3">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C113" s="3">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114" s="2">
-        <v>42005</v>
+        <v>42005.0</v>
       </c>
       <c r="B114" s="3">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C114" s="3">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" s="2">
-        <v>42036</v>
+        <v>42036.0</v>
       </c>
       <c r="B115" s="3">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C115" s="3">
+        <v>76.1</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" s="2">
-        <v>42064</v>
+        <v>42064.0</v>
       </c>
       <c r="B116" s="3">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C116" s="3">
+        <v>74.1</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" s="2">
-        <v>42095</v>
+        <v>42095.0</v>
       </c>
       <c r="B117" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>8.8</v>
+      </c>
+      <c r="C117" s="3">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118" s="2">
-        <v>42125</v>
+        <v>42125.0</v>
       </c>
       <c r="B118" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C118" s="3">
+        <v>75.1</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" s="2">
-        <v>42156</v>
+        <v>42156.0</v>
       </c>
       <c r="B119" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>9.2</v>
+      </c>
+      <c r="C119" s="3">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" s="2">
-        <v>42186</v>
+        <v>42186.0</v>
       </c>
       <c r="B120" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>9.7</v>
+      </c>
+      <c r="C120" s="3">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121" s="2">
-        <v>42217</v>
+        <v>42217.0</v>
       </c>
       <c r="B121" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>10.0</v>
+      </c>
+      <c r="C121" s="3">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="A122" s="2">
-        <v>42248</v>
+        <v>42248.0</v>
       </c>
       <c r="B122" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>10.0</v>
+      </c>
+      <c r="C122" s="3">
+        <v>65.1</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123" s="2">
-        <v>42278</v>
+        <v>42278.0</v>
       </c>
       <c r="B123" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>10.0</v>
+      </c>
+      <c r="C123" s="3">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" s="2">
-        <v>42309</v>
+        <v>42309.0</v>
       </c>
       <c r="B124" s="3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C124" s="3">
+        <v>66.1</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="A125" s="2">
-        <v>42339</v>
+        <v>42339.0</v>
       </c>
       <c r="B125" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>11.0</v>
+      </c>
+      <c r="C125" s="3">
+        <v>64.9</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" s="2">
-        <v>42370</v>
+        <v>42370.0</v>
       </c>
       <c r="B126" s="3">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C126" s="3">
+        <v>65.4</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127" s="2">
-        <v>42401</v>
+        <v>42401.0</v>
       </c>
       <c r="B127" s="3">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C127" s="3">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128" s="2">
-        <v>42430</v>
+        <v>42430.0</v>
       </c>
       <c r="B128" s="3">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C128" s="3">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" s="2">
-        <v>42461</v>
+        <v>42461.0</v>
       </c>
       <c r="B129" s="3">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C129" s="3">
+        <v>65.6</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" s="2">
-        <v>42491</v>
+        <v>42491.0</v>
       </c>
       <c r="B130" s="3">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C130" s="3">
+        <v>70.4</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" s="2">
-        <v>42522</v>
+        <v>42522.0</v>
       </c>
       <c r="B131" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C131" s="3">
+        <v>73.1</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" s="2">
-        <v>42552</v>
+        <v>42552.0</v>
       </c>
       <c r="B132" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>10.0</v>
+      </c>
+      <c r="C132" s="3">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133" s="2">
-        <v>42583</v>
+        <v>42583.0</v>
       </c>
       <c r="B133" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>9.8</v>
+      </c>
+      <c r="C133" s="3">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" s="2">
-        <v>42614</v>
+        <v>42614.0</v>
       </c>
       <c r="B134" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>9.8</v>
+      </c>
+      <c r="C134" s="3">
+        <v>79.9</v>
+      </c>
+    </row>
+    <row r="135">
       <c r="A135" s="2">
-        <v>42644</v>
+        <v>42644.0</v>
       </c>
       <c r="B135" s="3">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C135" s="3">
+        <v>80.6</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136" s="2">
-        <v>42675</v>
+        <v>42675.0</v>
       </c>
       <c r="B136" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>9.2</v>
+      </c>
+      <c r="C136" s="3">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137" s="2">
-        <v>42705</v>
+        <v>42705.0</v>
       </c>
       <c r="B137" s="3">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C137" s="3">
+        <v>74.1</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="A138" s="2">
-        <v>42736</v>
+        <v>42736.0</v>
       </c>
       <c r="B138" s="3">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C138" s="3">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" s="2">
-        <v>42767</v>
+        <v>42767.0</v>
       </c>
       <c r="B139" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C139" s="3">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140" s="2">
-        <v>42795</v>
+        <v>42795.0</v>
       </c>
       <c r="B140" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C140" s="3">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="A141" s="2">
-        <v>42826</v>
+        <v>42826.0</v>
       </c>
       <c r="B141" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C141" s="3">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="142">
       <c r="A142" s="2">
-        <v>42856</v>
+        <v>42856.0</v>
       </c>
       <c r="B142" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C142" s="3">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="143">
       <c r="A143" s="2">
-        <v>42887</v>
+        <v>42887.0</v>
       </c>
       <c r="B143" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C143" s="3">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="A144" s="2">
-        <v>42917</v>
+        <v>42917.0</v>
       </c>
       <c r="B144" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C144" s="3">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145" s="2">
-        <v>42948</v>
+        <v>42948.0</v>
       </c>
       <c r="B145" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C145" s="3">
+        <v>81.9</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146" s="2">
-        <v>42979</v>
+        <v>42979.0</v>
       </c>
       <c r="B146" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C146" s="3">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="A147" s="2">
-        <v>43009</v>
+        <v>43009.0</v>
       </c>
       <c r="B147" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C147" s="3">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="A148" s="2">
-        <v>43040</v>
+        <v>43040.0</v>
       </c>
       <c r="B148" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C148" s="3">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="149">
       <c r="A149" s="2">
-        <v>43070</v>
+        <v>43070.0</v>
       </c>
       <c r="B149" s="3">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C149" s="3">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="150">
       <c r="A150" s="2">
-        <v>43101</v>
+        <v>43101.0</v>
       </c>
       <c r="B150" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C150" s="3">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="A151" s="2">
-        <v>43132</v>
+        <v>43132.0</v>
       </c>
       <c r="B151" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C151" s="3">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="152">
       <c r="A152" s="2">
-        <v>43160</v>
+        <v>43160.0</v>
       </c>
       <c r="B152" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C152" s="3">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="153">
       <c r="A153" s="2">
-        <v>43191</v>
+        <v>43191.0</v>
       </c>
       <c r="B153" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>5.0</v>
+      </c>
+      <c r="C153" s="3">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="154">
       <c r="A154" s="2">
-        <v>43221</v>
+        <v>43221.0</v>
       </c>
       <c r="B154" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C154" s="3">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="155">
       <c r="A155" s="2">
-        <v>43252</v>
+        <v>43252.0</v>
       </c>
       <c r="B155" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C155" s="3">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="156">
       <c r="A156" s="2">
-        <v>43282</v>
+        <v>43282.0</v>
       </c>
       <c r="B156" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C156" s="3">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="157">
       <c r="A157" s="2">
-        <v>43313</v>
+        <v>43313.0</v>
       </c>
       <c r="B157" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C157" s="3">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="A158" s="2">
-        <v>43344</v>
+        <v>43344.0</v>
       </c>
       <c r="B158" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C158" s="3">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="159">
       <c r="A159" s="2">
-        <v>43374</v>
+        <v>43374.0</v>
       </c>
       <c r="B159" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C159" s="3">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="160">
       <c r="A160" s="2">
-        <v>43405</v>
+        <v>43405.0</v>
       </c>
       <c r="B160" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C160" s="3">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="161">
       <c r="A161" s="2">
-        <v>43435</v>
+        <v>43435.0</v>
       </c>
       <c r="B161" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C161" s="3">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="162">
       <c r="A162" s="2">
-        <v>43466</v>
+        <v>43466.0</v>
       </c>
       <c r="B162" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>5.0</v>
+      </c>
+      <c r="C162" s="3">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="163">
       <c r="A163" s="2">
-        <v>43497</v>
+        <v>43497.0</v>
       </c>
       <c r="B163" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>4.9</v>
+      </c>
+      <c r="C163" s="3">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="164">
       <c r="A164" s="2">
-        <v>43525</v>
+        <v>43525.0</v>
       </c>
       <c r="B164" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>5.1</v>
+      </c>
+      <c r="C164" s="3">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="165">
       <c r="A165" s="2">
-        <v>43556</v>
+        <v>43556.0</v>
       </c>
       <c r="B165" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C165" s="3">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="166">
       <c r="A166" s="2">
-        <v>43586</v>
+        <v>43586.0</v>
       </c>
       <c r="B166" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C166" s="3">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="167">
       <c r="A167" s="2">
-        <v>43617</v>
+        <v>43617.0</v>
       </c>
       <c r="B167" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C167" s="3">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="168">
       <c r="A168" s="2">
-        <v>43647</v>
+        <v>43647.0</v>
       </c>
       <c r="B168" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C168" s="3">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="169">
       <c r="A169" s="2">
-        <v>43678</v>
+        <v>43678.0</v>
       </c>
       <c r="B169" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>5.1</v>
+      </c>
+      <c r="C169" s="3">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="170">
       <c r="A170" s="2">
-        <v>43709</v>
+        <v>43709.0</v>
       </c>
       <c r="B170" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>5.1</v>
+      </c>
+      <c r="C170" s="3">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="171">
       <c r="A171" s="2">
-        <v>43739</v>
+        <v>43739.0</v>
       </c>
       <c r="B171" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>4.9</v>
+      </c>
+      <c r="C171" s="3">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="172">
       <c r="A172" s="2">
-        <v>43770</v>
+        <v>43770.0</v>
       </c>
       <c r="B172" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C172" s="3">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="173">
       <c r="A173" s="2">
-        <v>43800</v>
+        <v>43800.0</v>
       </c>
       <c r="B173" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C173" s="3">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="174">
       <c r="A174" s="2">
-        <v>43831</v>
+        <v>43831.0</v>
       </c>
       <c r="B174" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>5.0</v>
+      </c>
+      <c r="C174" s="3">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="175">
       <c r="A175" s="2">
-        <v>43862</v>
+        <v>43862.0</v>
       </c>
       <c r="B175" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>5.0</v>
+      </c>
+      <c r="C175" s="3">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="176">
       <c r="A176" s="2">
-        <v>43891</v>
+        <v>43891.0</v>
       </c>
       <c r="B176" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C176" s="3">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="177">
       <c r="A177" s="2">
-        <v>43922</v>
+        <v>43922.0</v>
       </c>
       <c r="B177" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>5.1</v>
+      </c>
+      <c r="C177" s="3">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="178">
       <c r="A178" s="2">
-        <v>43952</v>
+        <v>43952.0</v>
       </c>
       <c r="B178" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C178" s="3">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="179">
       <c r="A179" s="2">
-        <v>43983</v>
+        <v>43983.0</v>
       </c>
       <c r="B179" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C179" s="3">
+        <v>71.1</v>
+      </c>
+    </row>
+    <row r="180">
       <c r="A180" s="2">
-        <v>44013</v>
+        <v>44013.0</v>
       </c>
       <c r="B180" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C180" s="3">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="181">
       <c r="A181" s="2">
-        <v>44044</v>
+        <v>44044.0</v>
       </c>
       <c r="B181" s="3">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C181" s="3">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="182">
       <c r="A182" s="2">
-        <v>44075</v>
+        <v>44075.0</v>
       </c>
       <c r="B182" s="3">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C182" s="3">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="183">
       <c r="A183" s="2">
-        <v>44105</v>
+        <v>44105.0</v>
       </c>
       <c r="B183" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>4.6</v>
+      </c>
+      <c r="C183" s="3">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="184">
       <c r="A184" s="2">
-        <v>44136</v>
+        <v>44136.0</v>
       </c>
       <c r="B184" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C184" s="3">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="185">
       <c r="A185" s="2">
-        <v>44166</v>
+        <v>44166.0</v>
       </c>
       <c r="B185" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C185" s="3">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="186">
       <c r="A186" s="2">
-        <v>44197</v>
+        <v>44197.0</v>
       </c>
       <c r="B186" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C186" s="3">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="187">
       <c r="A187" s="2">
-        <v>44228</v>
+        <v>44228.0</v>
       </c>
       <c r="B187" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C187" s="3">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="188">
       <c r="A188" s="2">
-        <v>44256</v>
+        <v>44256.0</v>
       </c>
       <c r="B188" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C188" s="3">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="189">
       <c r="A189" s="2">
-        <v>44287</v>
+        <v>44287.0</v>
       </c>
       <c r="B189" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C189" s="3">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="190">
       <c r="A190" s="2">
-        <v>44317</v>
+        <v>44317.0</v>
       </c>
       <c r="B190" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C190" s="3">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="191">
       <c r="A191" s="2">
-        <v>44348</v>
+        <v>44348.0</v>
       </c>
       <c r="B191" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C191" s="3">
+        <v>80.9</v>
+      </c>
+    </row>
+    <row r="192">
       <c r="A192" s="2">
-        <v>44378</v>
+        <v>44378.0</v>
       </c>
       <c r="B192" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C192" s="3">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="193">
       <c r="A193" s="2">
-        <v>44409</v>
+        <v>44409.0</v>
       </c>
       <c r="B193" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C193" s="3">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="194">
       <c r="A194" s="2">
-        <v>44440</v>
+        <v>44440.0</v>
       </c>
       <c r="B194" s="3">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C194" s="3">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="195">
       <c r="A195" s="2">
-        <v>44470</v>
+        <v>44470.0</v>
       </c>
       <c r="B195" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>9.0</v>
+      </c>
+      <c r="C195" s="3">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="196">
       <c r="A196" s="2">
-        <v>44501</v>
+        <v>44501.0</v>
       </c>
       <c r="B196" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>10.0</v>
+      </c>
+      <c r="C196" s="3">
+        <v>74.9</v>
+      </c>
+    </row>
+    <row r="197">
       <c r="A197" s="2">
-        <v>44531</v>
+        <v>44531.0</v>
       </c>
       <c r="B197" s="3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C197" s="3">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="198">
       <c r="A198" s="2">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="B198" s="3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C198" s="3">
+        <v>74.1</v>
+      </c>
+    </row>
+    <row r="199">
       <c r="A199" s="2">
-        <v>44593</v>
+        <v>44593.0</v>
       </c>
       <c r="B199" s="3">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>10.2</v>
+      </c>
+      <c r="C199" s="3">
+        <v>77.9</v>
+      </c>
+    </row>
+    <row r="200">
       <c r="A200" s="2">
-        <v>44621</v>
+        <v>44621.0</v>
       </c>
       <c r="B200" s="3">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>10.2</v>
+      </c>
+      <c r="C200" s="3">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="201">
       <c r="A201" s="2">
-        <v>44652</v>
+        <v>44652.0</v>
       </c>
       <c r="B201" s="3">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C201" s="3">
+        <v>78.6</v>
+      </c>
+    </row>
+    <row r="202">
       <c r="A202" s="2">
-        <v>44682</v>
+        <v>44682.0</v>
       </c>
       <c r="B202" s="3">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C202" s="3">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="203">
       <c r="A203" s="2">
-        <v>44713</v>
+        <v>44713.0</v>
       </c>
       <c r="B203" s="3">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C203" s="3">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="204">
       <c r="A204" s="2">
-        <v>44743</v>
+        <v>44743.0</v>
       </c>
       <c r="B204" s="3">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C204" s="3">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="205">
       <c r="A205" s="2">
-        <v>44774</v>
+        <v>44774.0</v>
       </c>
       <c r="B205" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C205" s="3">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="206">
       <c r="A206" s="2">
-        <v>44805</v>
+        <v>44805.0</v>
       </c>
       <c r="B206" s="3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C206" s="3">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="207">
       <c r="A207" s="2">
-        <v>44835</v>
+        <v>44835.0</v>
       </c>
       <c r="B207" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>9.3</v>
+      </c>
+      <c r="C207" s="3">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="208">
       <c r="A208" s="2">
-        <v>44866</v>
+        <v>44866.0</v>
       </c>
       <c r="B208" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>8.7</v>
+      </c>
+      <c r="C208" s="3">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="209">
       <c r="A209" s="2">
-        <v>44896</v>
+        <v>44896.0</v>
       </c>
       <c r="B209" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>8.8</v>
+      </c>
+      <c r="C209" s="3">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="210">
       <c r="A210" s="2">
-        <v>44927</v>
+        <v>44927.0</v>
       </c>
       <c r="B210" s="3">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C210" s="3">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="211">
       <c r="A211" s="2">
-        <v>44958</v>
+        <v>44958.0</v>
       </c>
       <c r="B211" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>8.3</v>
+      </c>
+      <c r="C211" s="3">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="212">
       <c r="A212" s="2">
-        <v>44986</v>
+        <v>44986.0</v>
       </c>
       <c r="B212" s="3">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C212" s="3">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="213">
       <c r="A213" s="2">
-        <v>45017</v>
+        <v>45017.0</v>
       </c>
       <c r="B213" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>8.3</v>
+      </c>
+      <c r="C213" s="3">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="214">
       <c r="A214" s="2">
-        <v>45047</v>
+        <v>45047.0</v>
       </c>
       <c r="B214" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>8.2</v>
+      </c>
+      <c r="C214" s="3">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="215">
       <c r="A215" s="2">
-        <v>45078</v>
+        <v>45078.0</v>
       </c>
       <c r="B215" s="3">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C215" s="3">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="216">
       <c r="A216" s="2">
-        <v>45108</v>
+        <v>45108.0</v>
       </c>
       <c r="B216" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C216" s="3">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="217">
       <c r="A217" s="2">
-        <v>45139</v>
+        <v>45139.0</v>
       </c>
       <c r="B217" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C217" s="3">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="218">
       <c r="A218" s="2">
-        <v>45170</v>
+        <v>45170.0</v>
       </c>
       <c r="B218" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A219" s="2">
-        <v>45200</v>
-      </c>
-      <c r="B219" s="3">
-        <v>7.5</v>
+      <c r="C218" s="3">
+        <v>97.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/fgv_ibre.xlsx
+++ b/data/fgv_ibre.xlsx
@@ -2692,6 +2692,17 @@
         <v>97.0</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>45200.0</v>
+      </c>
+      <c r="B219" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="C219" s="3">
+        <v>93.2</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
